--- a/src/main/webapp/downloadFiles/dailyReportTemp.xlsx
+++ b/src/main/webapp/downloadFiles/dailyReportTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>${title}</t>
   </si>
@@ -36,6 +36,9 @@
     <t>充值成功笔数</t>
   </si>
   <si>
+    <t>总金额</t>
+  </si>
+  <si>
     <t>充值金额</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>${ad.count}</t>
   </si>
   <si>
+    <t>${ad.sumfee}</t>
+  </si>
+  <si>
     <t>${ad.fee}</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
   </si>
   <si>
     <t>$[SUM(J6)]</t>
+  </si>
+  <si>
+    <t>$[SUM(K6)]</t>
   </si>
   <si>
     <t>上家名</t>
@@ -147,8 +156,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -174,7 +183,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,122 +303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,13 +359,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,169 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +606,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -607,24 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,21 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -693,6 +693,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -701,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,20 +1243,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E3:N13"/>
+  <dimension ref="E3:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="15.25" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
@@ -1267,7 +1276,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" ht="22.5" spans="5:14">
+    <row r="4" ht="22.5" spans="5:15">
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1298,10 +1307,13 @@
       <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" ht="22.5" spans="5:14">
+    <row r="5" ht="22.5" spans="5:15">
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1310,44 +1322,48 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
-    <row r="6" ht="22.5" spans="5:14">
+    <row r="6" ht="22.5" spans="5:15">
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="M6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="N6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" ht="22.5" spans="5:14">
+    <row r="7" ht="22.5" spans="5:15">
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1356,32 +1372,36 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
-    <row r="8" ht="22.5" spans="5:14">
+    <row r="8" ht="22.5" spans="5:15">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" ht="22.5" spans="5:12">
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>2</v>
@@ -1393,21 +1413,21 @@
         <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="22.5" spans="5:12">
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1419,33 +1439,33 @@
     </row>
     <row r="11" ht="22.5" spans="5:12">
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="22.5" spans="5:12">
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1459,16 +1479,16 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>

--- a/src/main/webapp/downloadFiles/dailyReportTemp.xlsx
+++ b/src/main/webapp/downloadFiles/dailyReportTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24465" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>${title}</t>
   </si>
@@ -132,6 +132,9 @@
     <t>${pd.count}</t>
   </si>
   <si>
+    <t>${pd.sumfee}</t>
+  </si>
+  <si>
     <t>${pd.fee}</t>
   </si>
   <si>
@@ -147,7 +150,7 @@
     <t>$[SUM(I11)]</t>
   </si>
   <si>
-    <t>$[SUM(J11)]</t>
+    <t>$[SUM(K11)]</t>
   </si>
 </sst>
 </file>
@@ -155,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -182,54 +185,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +209,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,39 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,14 +268,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -320,7 +301,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,91 +362,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,85 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +608,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,7 +636,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,16 +657,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +688,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -684,24 +705,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1249,7 @@
   <dimension ref="E3:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1399,7 +1402,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" ht="22.5" spans="5:12">
+    <row r="9" ht="22.5" spans="5:13">
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1416,16 +1419,19 @@
         <v>31</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="22.5" spans="5:12">
+    <row r="10" ht="22.5" spans="5:13">
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1434,10 +1440,11 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
-    <row r="11" ht="22.5" spans="5:12">
+    <row r="11" ht="22.5" spans="5:13">
       <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1456,14 +1463,17 @@
       <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="M11" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="12" ht="22.5" spans="5:12">
+    <row r="12" ht="22.5" spans="5:13">
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1472,26 +1482,30 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
-    <row r="13" ht="22.5" spans="5:12">
+    <row r="13" ht="22.5" spans="5:13">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
